--- a/AfDD_2025_Annex_Table_Tab06.xlsx
+++ b/AfDD_2025_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F0AE96D-3FA4-4BE0-8A73-873DEFFB5ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA613769-5761-4575-861D-D03E54787C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2F5CD45E-1C64-4048-8ACD-A3786CAD5306}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CE2C8661-072B-4B04-85CA-3B6C5EC33A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
   <si>
     <t>Table 6: Basic education indicators</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
+    <t>..</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -562,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,13 +631,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -937,7 +930,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,8 +975,11 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -997,12 +993,6 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,19 +1005,19 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,25 +1071,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1104,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,28 +1137,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1452,11 +1442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AC5DC-8EFB-4026-B573-472D772B0DCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A4658F-D6B7-4FD0-8129-082C00AF9057}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1464,11 +1454,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.140625" style="81" customWidth="1"/>
+    <col min="3" max="10" width="14.140625" style="80" customWidth="1"/>
     <col min="11" max="15" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1481,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1513,787 +1503,1533 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>75.660004000000001</v>
+      </c>
+      <c r="D3" s="12">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="E3" s="12">
+        <v>83.970000999999996</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="11">
+        <v>66.239998</v>
+      </c>
+      <c r="H3" s="12">
+        <v>51.93</v>
+      </c>
+      <c r="I3" s="12">
+        <v>83.769997000000004</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="15">
+        <v>98.660004000000001</v>
+      </c>
+      <c r="D5" s="19">
+        <v>98.779999000000004</v>
+      </c>
+      <c r="E5" s="19">
+        <v>98.550003000000004</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>90.75</v>
+      </c>
+      <c r="H5" s="19">
+        <v>90.410004000000001</v>
+      </c>
+      <c r="I5" s="19">
+        <v>91.110000999999997</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>97.467332999999996</v>
+      </c>
+      <c r="D6" s="19">
+        <v>100</v>
+      </c>
+      <c r="E6" s="19">
+        <v>95.545449000000005</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.044546</v>
+      </c>
+      <c r="G6" s="15">
+        <v>92.497435999999993</v>
+      </c>
+      <c r="H6" s="19">
+        <v>97.736772999999999</v>
+      </c>
+      <c r="I6" s="19">
+        <v>87.673366999999999</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1.1029640000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>80.730002999999996</v>
+      </c>
+      <c r="D7" s="19">
+        <v>80.139999000000003</v>
+      </c>
+      <c r="E7" s="19">
+        <v>81.300003000000004</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.99</v>
+      </c>
+      <c r="G7" s="15">
+        <v>70.150002000000001</v>
+      </c>
+      <c r="H7" s="19">
+        <v>62.68</v>
+      </c>
+      <c r="I7" s="19">
+        <v>78.620002999999997</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>71.436628999999996</v>
+      </c>
+      <c r="D8" s="19">
+        <v>65.424359999999993</v>
+      </c>
+      <c r="E8" s="19">
+        <v>78.371042000000003</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.83480299999999996</v>
+      </c>
+      <c r="G8" s="15">
+        <v>61.677821000000002</v>
+      </c>
+      <c r="H8" s="19">
+        <v>50.926867999999999</v>
+      </c>
+      <c r="I8" s="19">
+        <v>74.122382000000002</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.68706500000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <v>92.129997000000003</v>
+      </c>
+      <c r="D9" s="19">
+        <v>93.480002999999996</v>
+      </c>
+      <c r="E9" s="19">
+        <v>90.790001000000004</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1.03</v>
+      </c>
+      <c r="G9" s="21">
+        <v>87.639999000000003</v>
+      </c>
+      <c r="H9" s="19">
+        <v>87.389999000000003</v>
+      </c>
+      <c r="I9" s="19">
+        <v>87.900002000000001</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="21">
+        <v>96.699996999999996</v>
+      </c>
+      <c r="D10" s="19">
+        <v>97.480002999999996</v>
+      </c>
+      <c r="E10" s="19">
+        <v>95.910004000000001</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="G10" s="21">
+        <v>90</v>
+      </c>
+      <c r="H10" s="19">
+        <v>89.370002999999997</v>
+      </c>
+      <c r="I10" s="19">
+        <v>90.68</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15">
+        <v>85.713230999999993</v>
+      </c>
+      <c r="D11" s="16">
+        <v>85.151037000000002</v>
+      </c>
+      <c r="E11" s="16">
+        <v>86.290976000000001</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.98678999999999994</v>
+      </c>
+      <c r="G11" s="15">
+        <v>82.041805999999994</v>
+      </c>
+      <c r="H11" s="16">
+        <v>77.186723000000001</v>
+      </c>
+      <c r="I11" s="16">
+        <v>87.205560000000006</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.88511200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="23">
+        <v>92.510002</v>
+      </c>
+      <c r="D12" s="24">
+        <v>94.220000999999996</v>
+      </c>
+      <c r="E12" s="24">
+        <v>90.769997000000004</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1.04</v>
+      </c>
+      <c r="G12" s="23">
+        <v>93.230002999999996</v>
+      </c>
+      <c r="H12" s="24">
+        <v>93.360000999999997</v>
+      </c>
+      <c r="I12" s="24">
+        <v>93.07</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="28">
+        <v>87.889689000000004</v>
+      </c>
+      <c r="D13" s="29">
+        <v>86.900599999999997</v>
+      </c>
+      <c r="E13" s="29">
+        <v>89.055274999999995</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.97179300000000002</v>
+      </c>
+      <c r="G13" s="28">
+        <v>81.580785000000006</v>
+      </c>
+      <c r="H13" s="29">
+        <v>77.887818999999993</v>
+      </c>
+      <c r="I13" s="29">
+        <v>86.016812000000002</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0.89612700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21">
+        <v>88.397934000000006</v>
+      </c>
+      <c r="D14" s="19">
+        <v>88.520264999999995</v>
+      </c>
+      <c r="E14" s="19">
+        <v>88.239153000000002</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1.0031760000000001</v>
+      </c>
+      <c r="G14" s="21">
+        <v>71.407816999999994</v>
+      </c>
+      <c r="H14" s="19">
+        <v>66.235487000000006</v>
+      </c>
+      <c r="I14" s="19">
+        <v>78.165633</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.84737399999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="21">
+        <v>81.889999000000003</v>
+      </c>
+      <c r="D15" s="19">
+        <v>76.389999000000003</v>
+      </c>
+      <c r="E15" s="19">
+        <v>87.599997999999999</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="G15" s="21">
+        <v>72.550003000000004</v>
+      </c>
+      <c r="H15" s="19">
+        <v>66.160004000000001</v>
+      </c>
+      <c r="I15" s="19">
+        <v>79.709998999999996</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
+      <c r="C16" s="21">
+        <v>50.599997999999999</v>
+      </c>
+      <c r="D16" s="19">
+        <v>36.68</v>
+      </c>
+      <c r="E16" s="19">
+        <v>64.900002000000001</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G16" s="21">
+        <v>42.439999</v>
+      </c>
+      <c r="H16" s="19">
+        <v>27.129999000000002</v>
+      </c>
+      <c r="I16" s="19">
+        <v>59.84</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="C17" s="32">
+        <v>45.130001</v>
+      </c>
+      <c r="D17" s="33">
+        <v>33.32</v>
+      </c>
+      <c r="E17" s="33">
+        <v>56.259998000000003</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.59</v>
+      </c>
+      <c r="G17" s="32">
+        <v>30.629999000000002</v>
+      </c>
+      <c r="H17" s="33">
+        <v>18.639999</v>
+      </c>
+      <c r="I17" s="33">
+        <v>44.52</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="C18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
+      <c r="C19" s="15">
+        <v>84.07</v>
+      </c>
+      <c r="D19" s="16">
+        <v>68.613474999999994</v>
+      </c>
+      <c r="E19" s="16">
+        <v>90.82</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="G19" s="15">
+        <v>65.691449000000006</v>
+      </c>
+      <c r="H19" s="16">
+        <v>56.120891</v>
+      </c>
+      <c r="I19" s="16">
+        <v>87.510002</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="C20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="C21" s="32">
+        <v>93.980002999999996</v>
+      </c>
+      <c r="D21" s="33">
+        <v>93.040001000000004</v>
+      </c>
+      <c r="E21" s="33">
+        <v>94.959998999999996</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="G21" s="32">
+        <v>88.860000999999997</v>
+      </c>
+      <c r="H21" s="33">
+        <v>87.07</v>
+      </c>
+      <c r="I21" s="33">
+        <v>90.790001000000004</v>
+      </c>
+      <c r="J21" s="34">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
+      <c r="C22" s="36">
+        <v>95.489998</v>
+      </c>
+      <c r="D22" s="37">
+        <v>95.07</v>
+      </c>
+      <c r="E22" s="37">
+        <v>95.849997999999999</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="G22" s="36">
+        <v>87.440002000000007</v>
+      </c>
+      <c r="H22" s="37">
+        <v>82.75</v>
+      </c>
+      <c r="I22" s="37">
+        <v>92.5</v>
+      </c>
+      <c r="J22" s="38">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="28">
+        <v>77.079705000000004</v>
+      </c>
+      <c r="D23" s="29">
+        <v>70.233390999999997</v>
+      </c>
+      <c r="E23" s="29">
+        <v>82.661306999999994</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0.83616800000000002</v>
+      </c>
+      <c r="G23" s="28">
+        <v>65.574180999999996</v>
+      </c>
+      <c r="H23" s="29">
+        <v>57.729483000000002</v>
+      </c>
+      <c r="I23" s="29">
+        <v>76.147948</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.72819599999999995</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="C24" s="40">
+        <v>90.836956999999998</v>
+      </c>
+      <c r="D24" s="41">
+        <v>91.436150999999995</v>
+      </c>
+      <c r="E24" s="41">
+        <v>90.274698000000001</v>
+      </c>
+      <c r="F24" s="42">
+        <v>1.1799059999999999</v>
+      </c>
+      <c r="G24" s="40">
+        <v>75.825057000000001</v>
+      </c>
+      <c r="H24" s="41">
+        <v>72.249573999999996</v>
+      </c>
+      <c r="I24" s="41">
+        <v>79.888293000000004</v>
+      </c>
+      <c r="J24" s="42">
+        <v>0.90438200000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="C25" s="21">
+        <v>79.552082999999996</v>
+      </c>
+      <c r="D25" s="19">
+        <v>74.572855000000004</v>
+      </c>
+      <c r="E25" s="19">
+        <v>84.592588000000006</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.88155300000000003</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="C26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="C27" s="21">
+        <v>84.690002000000007</v>
+      </c>
+      <c r="D27" s="19">
+        <v>80.919998000000007</v>
+      </c>
+      <c r="E27" s="19">
+        <v>88.419998000000007</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="G27" s="21">
+        <v>60.459999000000003</v>
+      </c>
+      <c r="H27" s="19">
+        <v>49.959999000000003</v>
+      </c>
+      <c r="I27" s="19">
+        <v>71.040001000000004</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="C28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.981182</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="C29" s="21">
+        <v>82.379997000000003</v>
+      </c>
+      <c r="D29" s="19">
+        <v>82.239998</v>
+      </c>
+      <c r="E29" s="19">
+        <v>82.529999000000004</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="21">
+        <v>74.690002000000007</v>
+      </c>
+      <c r="H29" s="19">
+        <v>71.75</v>
+      </c>
+      <c r="I29" s="19">
+        <v>77.900002000000001</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
+      <c r="C30" s="21">
+        <v>99.801015000000007</v>
+      </c>
+      <c r="D30" s="19">
+        <v>100</v>
+      </c>
+      <c r="E30" s="19">
+        <v>99.815886000000006</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1.001841</v>
+      </c>
+      <c r="G30" s="21">
+        <v>94.326521999999997</v>
+      </c>
+      <c r="H30" s="19">
+        <v>92.840739999999997</v>
+      </c>
+      <c r="I30" s="19">
+        <v>96.299239</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.964086</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
+      <c r="C31" s="21">
+        <v>89.970000999999996</v>
+      </c>
+      <c r="D31" s="19">
+        <v>92.370002999999997</v>
+      </c>
+      <c r="E31" s="19">
+        <v>87.510002</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1.05</v>
+      </c>
+      <c r="G31" s="21">
+        <v>78.760002</v>
+      </c>
+      <c r="H31" s="19">
+        <v>76.699996999999996</v>
+      </c>
+      <c r="I31" s="19">
+        <v>81.029999000000004</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="C32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="C33" s="21">
+        <v>70.709998999999996</v>
+      </c>
+      <c r="D33" s="19">
+        <v>65.110000999999997</v>
+      </c>
+      <c r="E33" s="19">
+        <v>76.190002000000007</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="G33" s="21">
+        <v>54.119999</v>
+      </c>
+      <c r="H33" s="19">
+        <v>43.900002000000001</v>
+      </c>
+      <c r="I33" s="19">
+        <v>64.5</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
+      <c r="C35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
+      <c r="C36" s="21">
+        <v>87.07</v>
+      </c>
+      <c r="D36" s="19">
+        <v>85.129997000000003</v>
+      </c>
+      <c r="E36" s="19">
+        <v>88.809997999999993</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.96</v>
+      </c>
+      <c r="G36" s="21">
+        <v>78.209998999999996</v>
+      </c>
+      <c r="H36" s="19">
+        <v>73.129997000000003</v>
+      </c>
+      <c r="I36" s="19">
+        <v>84.25</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="C37" s="23">
+        <v>89.63252</v>
+      </c>
+      <c r="D37" s="24">
+        <v>89.192642000000006</v>
+      </c>
+      <c r="E37" s="24">
+        <v>90.118568999999994</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.98972499999999997</v>
+      </c>
+      <c r="G37" s="23">
+        <v>79.058233000000001</v>
+      </c>
+      <c r="H37" s="24">
+        <v>73.944322</v>
+      </c>
+      <c r="I37" s="24">
+        <v>84.650423000000004</v>
+      </c>
+      <c r="J37" s="25">
+        <v>0.87352600000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+      <c r="C38" s="28">
+        <v>86.071397000000005</v>
+      </c>
+      <c r="D38" s="29">
+        <v>84.552404999999993</v>
+      </c>
+      <c r="E38" s="29">
+        <v>87.584637999999998</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.98142099999999999</v>
+      </c>
+      <c r="G38" s="28">
+        <v>74.431227000000007</v>
+      </c>
+      <c r="H38" s="29">
+        <v>69.309329000000005</v>
+      </c>
+      <c r="I38" s="29">
+        <v>79.944744</v>
+      </c>
+      <c r="J38" s="30">
+        <v>0.85774899999999998</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
+      <c r="C39" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="45">
+        <v>97.989998</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="45">
+        <v>74.209998999999996</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
+      <c r="C40" s="21">
+        <v>95.190867999999995</v>
+      </c>
+      <c r="D40" s="19">
+        <v>94.816356999999996</v>
+      </c>
+      <c r="E40" s="19">
+        <v>95.505475000000004</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.99278500000000003</v>
+      </c>
+      <c r="G40" s="21">
+        <v>79.456579000000005</v>
+      </c>
+      <c r="H40" s="19">
+        <v>73.299351000000001</v>
+      </c>
+      <c r="I40" s="19">
+        <v>85.289652000000004</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.85941699999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="C41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="C42" s="32">
+        <v>70.860000999999997</v>
+      </c>
+      <c r="D42" s="33">
+        <v>66.980002999999996</v>
+      </c>
+      <c r="E42" s="33">
+        <v>75.260002</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.89</v>
+      </c>
+      <c r="G42" s="32">
+        <v>59.529998999999997</v>
+      </c>
+      <c r="H42" s="33">
+        <v>51.810001</v>
+      </c>
+      <c r="I42" s="33">
+        <v>70.099997999999999</v>
+      </c>
+      <c r="J42" s="34">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
+      <c r="C43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
+      <c r="C44" s="36">
+        <v>98.160004000000001</v>
+      </c>
+      <c r="D44" s="37">
+        <v>98.129997000000003</v>
+      </c>
+      <c r="E44" s="37">
+        <v>98.190002000000007</v>
+      </c>
+      <c r="F44" s="38">
+        <v>1</v>
+      </c>
+      <c r="G44" s="36">
+        <v>86.25</v>
+      </c>
+      <c r="H44" s="37">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="I44" s="37">
+        <v>92.690002000000007</v>
+      </c>
+      <c r="J44" s="38">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+      <c r="C45" s="28">
+        <v>88.070290999999997</v>
+      </c>
+      <c r="D45" s="29">
+        <v>89.479089000000002</v>
+      </c>
+      <c r="E45" s="29">
+        <v>89.651826999999997</v>
+      </c>
+      <c r="F45" s="30">
+        <v>0.960928</v>
+      </c>
+      <c r="G45" s="28">
+        <v>75.078858999999994</v>
+      </c>
+      <c r="H45" s="29">
+        <v>69.847337999999993</v>
+      </c>
+      <c r="I45" s="29">
+        <v>82.693218000000002</v>
+      </c>
+      <c r="J45" s="30">
+        <v>0.81980600000000003</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
+      <c r="C46" s="40">
+        <v>71.25</v>
+      </c>
+      <c r="D46" s="41">
+        <v>67.940002000000007</v>
+      </c>
+      <c r="E46" s="41">
+        <v>74.599997999999999</v>
+      </c>
+      <c r="F46" s="42">
+        <v>0.91</v>
+      </c>
+      <c r="G46" s="40">
+        <v>51.380001</v>
+      </c>
+      <c r="H46" s="41">
+        <v>41.509998000000003</v>
+      </c>
+      <c r="I46" s="41">
+        <v>62.619999</v>
+      </c>
+      <c r="J46" s="42">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
+      <c r="C47" s="21">
+        <v>62.810001</v>
+      </c>
+      <c r="D47" s="19">
+        <v>67.076954999999998</v>
+      </c>
+      <c r="E47" s="19">
+        <v>65.470000999999996</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="G47" s="21">
+        <v>41.442034</v>
+      </c>
+      <c r="H47" s="19">
+        <v>35.696255999999998</v>
+      </c>
+      <c r="I47" s="19">
+        <v>48.438308999999997</v>
+      </c>
+      <c r="J47" s="20">
+        <v>0.73694300000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="C48" s="32">
+        <v>98.110000999999997</v>
+      </c>
+      <c r="D48" s="33">
+        <v>98.730002999999996</v>
+      </c>
+      <c r="E48" s="33">
+        <v>97.589995999999999</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1.01</v>
+      </c>
+      <c r="G48" s="32">
+        <v>86.790001000000004</v>
+      </c>
+      <c r="H48" s="33">
+        <v>82.040001000000004</v>
+      </c>
+      <c r="I48" s="33">
+        <v>91.690002000000007</v>
+      </c>
+      <c r="J48" s="34">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
+      <c r="C49" s="21">
+        <v>66.839995999999999</v>
+      </c>
+      <c r="D49" s="19">
+        <v>58.32</v>
+      </c>
+      <c r="E49" s="19">
+        <v>82.111801</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.77</v>
+      </c>
+      <c r="G49" s="21">
+        <v>50</v>
+      </c>
+      <c r="H49" s="19">
+        <v>40.259998000000003</v>
+      </c>
+      <c r="I49" s="19">
+        <v>68.033246000000005</v>
+      </c>
+      <c r="J49" s="20">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="C50" s="21">
+        <v>67.489998</v>
+      </c>
+      <c r="D50" s="19">
+        <v>62.549999</v>
+      </c>
+      <c r="E50" s="19">
+        <v>72.019997000000004</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="G50" s="21">
+        <v>51.639999000000003</v>
+      </c>
+      <c r="H50" s="19">
+        <v>40.450001</v>
+      </c>
+      <c r="I50" s="19">
+        <v>65.269997000000004</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -2302,886 +3038,1651 @@
       <c r="B51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
+      <c r="C51" s="15">
+        <v>91.510002</v>
+      </c>
+      <c r="D51" s="16">
+        <v>91.300003000000004</v>
+      </c>
+      <c r="E51" s="16">
+        <v>91.739998</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.921767</v>
+      </c>
+      <c r="G51" s="15">
+        <v>76.489998</v>
+      </c>
+      <c r="H51" s="16">
+        <v>72.139999000000003</v>
+      </c>
+      <c r="I51" s="16">
+        <v>81.330001999999993</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="19"/>
+      <c r="C52" s="21">
+        <v>53.939999</v>
+      </c>
+      <c r="D52" s="19">
+        <v>43.470001000000003</v>
+      </c>
+      <c r="E52" s="19">
+        <v>69.639999000000003</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="G52" s="21">
+        <v>39.619999</v>
+      </c>
+      <c r="H52" s="19">
+        <v>27.690000999999999</v>
+      </c>
+      <c r="I52" s="19">
+        <v>54.43</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="19"/>
+      <c r="C53" s="21">
+        <v>82.230002999999996</v>
+      </c>
+      <c r="D53" s="19">
+        <v>78.269997000000004</v>
+      </c>
+      <c r="E53" s="19">
+        <v>86.199996999999996</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="G53" s="21">
+        <v>63.93</v>
+      </c>
+      <c r="H53" s="19">
+        <v>52.16</v>
+      </c>
+      <c r="I53" s="19">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="J53" s="20">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
+      <c r="C54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.83323700000000001</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
+      <c r="C55" s="21">
+        <v>53.35</v>
+      </c>
+      <c r="D55" s="19">
+        <v>60.92</v>
+      </c>
+      <c r="E55" s="19">
+        <v>44.16</v>
+      </c>
+      <c r="F55" s="20">
+        <v>1.275115</v>
+      </c>
+      <c r="G55" s="21">
+        <v>35.470001000000003</v>
+      </c>
+      <c r="H55" s="19">
+        <v>25.74</v>
+      </c>
+      <c r="I55" s="19">
+        <v>46.18</v>
+      </c>
+      <c r="J55" s="20">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="19"/>
+      <c r="C56" s="21">
+        <v>53.91</v>
+      </c>
+      <c r="D56" s="19">
+        <v>44.740001999999997</v>
+      </c>
+      <c r="E56" s="19">
+        <v>63.959999000000003</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="G56" s="21">
+        <v>35.610000999999997</v>
+      </c>
+      <c r="H56" s="19">
+        <v>25.690000999999999</v>
+      </c>
+      <c r="I56" s="19">
+        <v>47.889999000000003</v>
+      </c>
+      <c r="J56" s="20">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
+      <c r="C57" s="21">
+        <v>73.669998000000007</v>
+      </c>
+      <c r="D57" s="19">
+        <v>69.050003000000004</v>
+      </c>
+      <c r="E57" s="19">
+        <v>77.779999000000004</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="G57" s="21">
+        <v>63.16</v>
+      </c>
+      <c r="H57" s="19">
+        <v>53.25</v>
+      </c>
+      <c r="I57" s="19">
+        <v>73.730002999999996</v>
+      </c>
+      <c r="J57" s="20">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="19"/>
+      <c r="C58" s="21">
+        <v>67.449996999999996</v>
+      </c>
+      <c r="D58" s="19">
+        <v>65.599997999999999</v>
+      </c>
+      <c r="E58" s="19">
+        <v>69.269997000000004</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="G58" s="21">
+        <v>50.360000999999997</v>
+      </c>
+      <c r="H58" s="19">
+        <v>41.5</v>
+      </c>
+      <c r="I58" s="19">
+        <v>61.470001000000003</v>
+      </c>
+      <c r="J58" s="20">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="C59" s="21">
+        <v>72.989998</v>
+      </c>
+      <c r="D59" s="19">
+        <v>67.860000999999997</v>
+      </c>
+      <c r="E59" s="19">
+        <v>78.199996999999996</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="G59" s="21">
+        <v>43.580002</v>
+      </c>
+      <c r="H59" s="19">
+        <v>33.939999</v>
+      </c>
+      <c r="I59" s="19">
+        <v>54.599997999999999</v>
+      </c>
+      <c r="J59" s="20">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="C60" s="23">
+        <v>90.360000999999997</v>
+      </c>
+      <c r="D60" s="24">
+        <v>87.650002000000001</v>
+      </c>
+      <c r="E60" s="24">
+        <v>93.330001999999993</v>
+      </c>
+      <c r="F60" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="G60" s="23">
+        <v>72.599997999999999</v>
+      </c>
+      <c r="H60" s="24">
+        <v>63.66</v>
+      </c>
+      <c r="I60" s="24">
+        <v>82.849997999999999</v>
+      </c>
+      <c r="J60" s="25">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="C61" s="28">
+        <v>71.850713999999996</v>
+      </c>
+      <c r="D61" s="29">
+        <v>68.819783000000001</v>
+      </c>
+      <c r="E61" s="29">
+        <v>76.147983999999994</v>
+      </c>
+      <c r="F61" s="30">
+        <v>0.89334100000000005</v>
+      </c>
+      <c r="G61" s="28">
+        <v>54.433717000000001</v>
+      </c>
+      <c r="H61" s="29">
+        <v>45.409018000000003</v>
+      </c>
+      <c r="I61" s="29">
+        <v>65.417968000000002</v>
+      </c>
+      <c r="J61" s="30">
+        <v>0.68120999999999998</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
+      <c r="C62" s="50">
+        <v>80.364965999999995</v>
+      </c>
+      <c r="D62" s="51">
+        <v>78.048933000000005</v>
+      </c>
+      <c r="E62" s="51">
+        <v>83.414658000000003</v>
+      </c>
+      <c r="F62" s="52">
+        <v>0.92491900000000005</v>
+      </c>
+      <c r="G62" s="50">
+        <v>67.707432999999995</v>
+      </c>
+      <c r="H62" s="51">
+        <v>61.302070999999998</v>
+      </c>
+      <c r="I62" s="51">
+        <v>75.870148999999998</v>
+      </c>
+      <c r="J62" s="52">
+        <v>0.78099700000000005</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
+      <c r="C63" s="50">
+        <v>96.574938000000003</v>
+      </c>
+      <c r="D63" s="51">
+        <v>96.615234999999998</v>
+      </c>
+      <c r="E63" s="51">
+        <v>96.632498999999996</v>
+      </c>
+      <c r="F63" s="52">
+        <v>0.99912699999999999</v>
+      </c>
+      <c r="G63" s="50">
+        <v>91.890476000000007</v>
+      </c>
+      <c r="H63" s="51">
+        <v>89.941080999999997</v>
+      </c>
+      <c r="I63" s="51">
+        <v>93.606075000000004</v>
+      </c>
+      <c r="J63" s="52">
+        <v>0.957839</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="58"/>
+      <c r="C64" s="55">
+        <v>96.945918000000006</v>
+      </c>
+      <c r="D64" s="56">
+        <v>98.502481000000003</v>
+      </c>
+      <c r="E64" s="56">
+        <v>97.091730999999996</v>
+      </c>
+      <c r="F64" s="57">
+        <v>1.0118050000000001</v>
+      </c>
+      <c r="G64" s="55">
+        <v>92.395538999999999</v>
+      </c>
+      <c r="H64" s="56">
+        <v>91.826132999999999</v>
+      </c>
+      <c r="I64" s="56">
+        <v>93.319120999999996</v>
+      </c>
+      <c r="J64" s="57">
+        <v>0.98089599999999999</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
+      <c r="C65" s="59">
+        <v>94.643842000000006</v>
+      </c>
+      <c r="D65" s="60">
+        <v>92.748390000000001</v>
+      </c>
+      <c r="E65" s="60">
+        <v>94.812478999999996</v>
+      </c>
+      <c r="F65" s="61">
+        <v>0.97655999999999998</v>
+      </c>
+      <c r="G65" s="59">
+        <v>85.458607999999998</v>
+      </c>
+      <c r="H65" s="60">
+        <v>81.427976999999998</v>
+      </c>
+      <c r="I65" s="60">
+        <v>89.561674999999994</v>
+      </c>
+      <c r="J65" s="61">
+        <v>0.90315999999999996</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
+      <c r="C66" s="63">
+        <v>90.948335999999998</v>
+      </c>
+      <c r="D66" s="64">
+        <v>90.279116000000002</v>
+      </c>
+      <c r="E66" s="64">
+        <v>92.082093999999998</v>
+      </c>
+      <c r="F66" s="65">
+        <v>0.97279499999999997</v>
+      </c>
+      <c r="G66" s="63">
+        <v>83.268696000000006</v>
+      </c>
+      <c r="H66" s="64">
+        <v>80.161906999999999</v>
+      </c>
+      <c r="I66" s="64">
+        <v>87.282831999999999</v>
+      </c>
+      <c r="J66" s="65">
+        <v>0.894791</v>
+      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="62"/>
+      <c r="C67" s="59">
+        <v>88.187788999999995</v>
+      </c>
+      <c r="D67" s="60">
+        <v>86.513299000000004</v>
+      </c>
+      <c r="E67" s="60">
+        <v>89.319834</v>
+      </c>
+      <c r="F67" s="61">
+        <v>0.98334999999999995</v>
+      </c>
+      <c r="G67" s="59">
+        <v>77.081164999999999</v>
+      </c>
+      <c r="H67" s="60">
+        <v>72.047139000000001</v>
+      </c>
+      <c r="I67" s="60">
+        <v>83.264587000000006</v>
+      </c>
+      <c r="J67" s="61">
+        <v>0.86226000000000003</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="62"/>
+      <c r="C68" s="59">
+        <v>71.849519000000001</v>
+      </c>
+      <c r="D68" s="60">
+        <v>67.894873000000004</v>
+      </c>
+      <c r="E68" s="60">
+        <v>76.650216999999998</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.88148199999999999</v>
+      </c>
+      <c r="G68" s="59">
+        <v>55.176682999999997</v>
+      </c>
+      <c r="H68" s="60">
+        <v>46.039259000000001</v>
+      </c>
+      <c r="I68" s="60">
+        <v>66.049475000000001</v>
+      </c>
+      <c r="J68" s="61">
+        <v>0.678037</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
+      <c r="C69" s="59">
+        <v>87.828091000000001</v>
+      </c>
+      <c r="D69" s="60">
+        <v>84.765276</v>
+      </c>
+      <c r="E69" s="60">
+        <v>89.099543999999995</v>
+      </c>
+      <c r="F69" s="61">
+        <v>0.97234699999999996</v>
+      </c>
+      <c r="G69" s="59">
+        <v>74.625500000000002</v>
+      </c>
+      <c r="H69" s="60">
+        <v>69.226139000000003</v>
+      </c>
+      <c r="I69" s="60">
+        <v>83.121211000000002</v>
+      </c>
+      <c r="J69" s="61">
+        <v>0.84818000000000005</v>
+      </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
+      <c r="C70" s="59">
+        <v>78.354214999999996</v>
+      </c>
+      <c r="D70" s="60">
+        <v>72.381527000000006</v>
+      </c>
+      <c r="E70" s="60">
+        <v>83.345461</v>
+      </c>
+      <c r="F70" s="61">
+        <v>0.855908</v>
+      </c>
+      <c r="G70" s="59">
+        <v>67.113252000000003</v>
+      </c>
+      <c r="H70" s="60">
+        <v>59.192931000000002</v>
+      </c>
+      <c r="I70" s="60">
+        <v>77.537291999999994</v>
+      </c>
+      <c r="J70" s="61">
+        <v>0.74081900000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
+      <c r="C71" s="59">
+        <v>71.850713999999996</v>
+      </c>
+      <c r="D71" s="60">
+        <v>68.819783000000001</v>
+      </c>
+      <c r="E71" s="60">
+        <v>76.147983999999994</v>
+      </c>
+      <c r="F71" s="61">
+        <v>0.89334100000000005</v>
+      </c>
+      <c r="G71" s="59">
+        <v>54.433717000000001</v>
+      </c>
+      <c r="H71" s="60">
+        <v>45.409018000000003</v>
+      </c>
+      <c r="I71" s="60">
+        <v>65.417968000000002</v>
+      </c>
+      <c r="J71" s="61">
+        <v>0.68120999999999998</v>
+      </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
+      <c r="C72" s="59">
+        <v>81.146151000000003</v>
+      </c>
+      <c r="D72" s="60">
+        <v>77.448874000000004</v>
+      </c>
+      <c r="E72" s="60">
+        <v>84.830288999999993</v>
+      </c>
+      <c r="F72" s="61">
+        <v>0.92449199999999998</v>
+      </c>
+      <c r="G72" s="59">
+        <v>64.546076999999997</v>
+      </c>
+      <c r="H72" s="60">
+        <v>55.934773999999997</v>
+      </c>
+      <c r="I72" s="60">
+        <v>73.396807999999993</v>
+      </c>
+      <c r="J72" s="61">
+        <v>0.75117500000000004</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
+      <c r="C73" s="59">
+        <v>88.226083000000003</v>
+      </c>
+      <c r="D73" s="60">
+        <v>86.394644999999997</v>
+      </c>
+      <c r="E73" s="60">
+        <v>89.553432000000001</v>
+      </c>
+      <c r="F73" s="61">
+        <v>0.98127799999999998</v>
+      </c>
+      <c r="G73" s="59">
+        <v>80.212149999999994</v>
+      </c>
+      <c r="H73" s="60">
+        <v>76.220112</v>
+      </c>
+      <c r="I73" s="60">
+        <v>85.714202999999998</v>
+      </c>
+      <c r="J73" s="61">
+        <v>0.887401</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
+      <c r="C74" s="59">
+        <v>84.510002</v>
+      </c>
+      <c r="D74" s="60">
+        <v>87.699999000000005</v>
+      </c>
+      <c r="E74" s="60">
+        <v>86.725002000000003</v>
+      </c>
+      <c r="F74" s="61">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G74" s="59">
+        <v>72.889999000000003</v>
+      </c>
+      <c r="H74" s="60">
+        <v>68.696667000000005</v>
+      </c>
+      <c r="I74" s="60">
+        <v>81.394999999999996</v>
+      </c>
+      <c r="J74" s="61">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
+      <c r="C75" s="66">
+        <v>84.585327000000007</v>
+      </c>
+      <c r="D75" s="67">
+        <v>80.984871999999996</v>
+      </c>
+      <c r="E75" s="67">
+        <v>88.396207000000004</v>
+      </c>
+      <c r="F75" s="68">
+        <v>0.90896100000000002</v>
+      </c>
+      <c r="G75" s="66">
+        <v>73.215564000000001</v>
+      </c>
+      <c r="H75" s="67">
+        <v>63.961373999999999</v>
+      </c>
+      <c r="I75" s="67">
+        <v>83.880476000000002</v>
+      </c>
+      <c r="J75" s="68">
+        <v>0.751413</v>
+      </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="73"/>
+      <c r="C76" s="70">
+        <v>96.975718999999998</v>
+      </c>
+      <c r="D76" s="71">
+        <v>96.915053999999998</v>
+      </c>
+      <c r="E76" s="71">
+        <v>97.035208999999995</v>
+      </c>
+      <c r="F76" s="72">
+        <v>0.99787099999999995</v>
+      </c>
+      <c r="G76" s="70">
+        <v>90.693014000000005</v>
+      </c>
+      <c r="H76" s="71">
+        <v>88.033501000000001</v>
+      </c>
+      <c r="I76" s="71">
+        <v>94.413605000000004</v>
+      </c>
+      <c r="J76" s="72">
+        <v>0.93881199999999998</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="62"/>
+      <c r="C77" s="59">
+        <v>99.052156999999994</v>
+      </c>
+      <c r="D77" s="60">
+        <v>99.230320000000006</v>
+      </c>
+      <c r="E77" s="60">
+        <v>98.876013999999998</v>
+      </c>
+      <c r="F77" s="61">
+        <v>1.003671</v>
+      </c>
+      <c r="G77" s="59">
+        <v>95.353303999999994</v>
+      </c>
+      <c r="H77" s="60">
+        <v>95.108687000000003</v>
+      </c>
+      <c r="I77" s="60">
+        <v>95.732991999999996</v>
+      </c>
+      <c r="J77" s="61">
+        <v>0.99422999999999995</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
+      <c r="C78" s="59">
+        <v>99.846670000000003</v>
+      </c>
+      <c r="D78" s="60">
+        <v>99.873334</v>
+      </c>
+      <c r="E78" s="60">
+        <v>99.826667999999998</v>
+      </c>
+      <c r="F78" s="61">
+        <v>1</v>
+      </c>
+      <c r="G78" s="59">
+        <v>99.403333000000003</v>
+      </c>
+      <c r="H78" s="60">
+        <v>99.363332</v>
+      </c>
+      <c r="I78" s="60">
+        <v>99.436666000000002</v>
+      </c>
+      <c r="J78" s="61">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
+      <c r="C79" s="63">
+        <v>95.691997999999998</v>
+      </c>
+      <c r="D79" s="64">
+        <v>98.449340000000007</v>
+      </c>
+      <c r="E79" s="64">
+        <v>98.161940999999999</v>
+      </c>
+      <c r="F79" s="65">
+        <v>1.0005820000000001</v>
+      </c>
+      <c r="G79" s="63">
+        <v>97.334541000000002</v>
+      </c>
+      <c r="H79" s="64">
+        <v>96.483560999999995</v>
+      </c>
+      <c r="I79" s="64">
+        <v>97.805702999999994</v>
+      </c>
+      <c r="J79" s="65">
+        <v>0.991699</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="73"/>
+      <c r="C80" s="70">
+        <v>76.748002</v>
+      </c>
+      <c r="D80" s="71">
+        <v>76.248334</v>
+      </c>
+      <c r="E80" s="71">
+        <v>81.607999000000007</v>
+      </c>
+      <c r="F80" s="72">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G80" s="70">
+        <v>66.409998999999999</v>
+      </c>
+      <c r="H80" s="71">
+        <v>60.95</v>
+      </c>
+      <c r="I80" s="71">
+        <v>76.174000000000007</v>
+      </c>
+      <c r="J80" s="72">
+        <v>0.72599999999999998</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
+      <c r="C81" s="59">
+        <v>97.327436000000006</v>
+      </c>
+      <c r="D81" s="60">
+        <v>96.696980999999994</v>
+      </c>
+      <c r="E81" s="60">
+        <v>95.449042000000006</v>
+      </c>
+      <c r="F81" s="61">
+        <v>1.010378</v>
+      </c>
+      <c r="G81" s="59">
+        <v>94.474568000000005</v>
+      </c>
+      <c r="H81" s="60">
+        <v>89.760486</v>
+      </c>
+      <c r="I81" s="60">
+        <v>95.639223000000001</v>
+      </c>
+      <c r="J81" s="61">
+        <v>0.96429500000000001</v>
+      </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="62"/>
+      <c r="C82" s="59">
+        <v>80.853745000000004</v>
+      </c>
+      <c r="D82" s="60">
+        <v>78.340922000000006</v>
+      </c>
+      <c r="E82" s="60">
+        <v>83.658800999999997</v>
+      </c>
+      <c r="F82" s="61">
+        <v>0.93401100000000004</v>
+      </c>
+      <c r="G82" s="59">
+        <v>67.887631999999996</v>
+      </c>
+      <c r="H82" s="60">
+        <v>61.360750000000003</v>
+      </c>
+      <c r="I82" s="60">
+        <v>75.827948000000006</v>
+      </c>
+      <c r="J82" s="61">
+        <v>0.78863499999999997</v>
+      </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
+      <c r="C83" s="63">
+        <v>96.352889000000005</v>
+      </c>
+      <c r="D83" s="64">
+        <v>96.589282999999995</v>
+      </c>
+      <c r="E83" s="64">
+        <v>97.001115999999996</v>
+      </c>
+      <c r="F83" s="65">
+        <v>0.99562200000000001</v>
+      </c>
+      <c r="G83" s="63">
+        <v>91.177623999999994</v>
+      </c>
+      <c r="H83" s="64">
+        <v>89.992679999999993</v>
+      </c>
+      <c r="I83" s="64">
+        <v>93.045207000000005</v>
+      </c>
+      <c r="J83" s="65">
+        <v>0.95605799999999996</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
+      <c r="C84" s="70">
+        <v>72.717476000000005</v>
+      </c>
+      <c r="D84" s="71">
+        <v>68.863394</v>
+      </c>
+      <c r="E84" s="71">
+        <v>76.445809999999994</v>
+      </c>
+      <c r="F84" s="72">
+        <v>0.89200299999999999</v>
+      </c>
+      <c r="G84" s="70">
+        <v>57.229255999999999</v>
+      </c>
+      <c r="H84" s="71">
+        <v>48.550812999999998</v>
+      </c>
+      <c r="I84" s="71">
+        <v>67.847455999999994</v>
+      </c>
+      <c r="J84" s="72">
+        <v>0.69675900000000002</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="62"/>
+      <c r="C85" s="59">
+        <v>80.525000000000006</v>
+      </c>
+      <c r="D85" s="60">
+        <v>73.176665999999997</v>
+      </c>
+      <c r="E85" s="60">
+        <v>81.169999000000004</v>
+      </c>
+      <c r="F85" s="61">
+        <v>0.90866000000000002</v>
+      </c>
+      <c r="G85" s="59">
+        <v>65.844999000000001</v>
+      </c>
+      <c r="H85" s="60">
+        <v>57.516666999999998</v>
+      </c>
+      <c r="I85" s="60">
+        <v>74.614999999999995</v>
+      </c>
+      <c r="J85" s="61">
+        <v>0.68500000000000005</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="62"/>
+      <c r="C86" s="59">
+        <v>83.292524</v>
+      </c>
+      <c r="D86" s="60">
+        <v>80.863320000000002</v>
+      </c>
+      <c r="E86" s="60">
+        <v>86.357049000000004</v>
+      </c>
+      <c r="F86" s="61">
+        <v>0.93850100000000003</v>
+      </c>
+      <c r="G86" s="59">
+        <v>72.772152000000006</v>
+      </c>
+      <c r="H86" s="60">
+        <v>67.043812000000003</v>
+      </c>
+      <c r="I86" s="60">
+        <v>79.830005999999997</v>
+      </c>
+      <c r="J86" s="61">
+        <v>0.82483600000000001</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
+      <c r="C87" s="59">
+        <v>94.309545999999997</v>
+      </c>
+      <c r="D87" s="60">
+        <v>93.809490999999994</v>
+      </c>
+      <c r="E87" s="60">
+        <v>95.236440999999999</v>
+      </c>
+      <c r="F87" s="61">
+        <v>0.99128700000000003</v>
+      </c>
+      <c r="G87" s="59">
+        <v>84.060860000000005</v>
+      </c>
+      <c r="H87" s="60">
+        <v>80.230102000000002</v>
+      </c>
+      <c r="I87" s="60">
+        <v>88.145077999999998</v>
+      </c>
+      <c r="J87" s="61">
+        <v>0.90652299999999997</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
+      <c r="C88" s="59">
+        <v>97.147754000000006</v>
+      </c>
+      <c r="D88" s="60">
+        <v>97.448001000000005</v>
+      </c>
+      <c r="E88" s="60">
+        <v>97.068971000000005</v>
+      </c>
+      <c r="F88" s="61">
+        <v>1.0029600000000001</v>
+      </c>
+      <c r="G88" s="59">
+        <v>89.994130999999996</v>
+      </c>
+      <c r="H88" s="60">
+        <v>85.106149000000002</v>
+      </c>
+      <c r="I88" s="60">
+        <v>92.364811000000003</v>
+      </c>
+      <c r="J88" s="61">
+        <v>0.95102100000000001</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="62"/>
+      <c r="C89" s="59">
+        <v>98.216391000000002</v>
+      </c>
+      <c r="D89" s="60">
+        <v>98.592275999999998</v>
+      </c>
+      <c r="E89" s="60">
+        <v>97.882322000000002</v>
+      </c>
+      <c r="F89" s="61">
+        <v>1.0061359999999999</v>
+      </c>
+      <c r="G89" s="59">
+        <v>95.428306000000006</v>
+      </c>
+      <c r="H89" s="60">
+        <v>94.702977000000004</v>
+      </c>
+      <c r="I89" s="60">
+        <v>96.092434999999995</v>
+      </c>
+      <c r="J89" s="61">
+        <v>0.98582400000000003</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
+      <c r="C90" s="63">
+        <v>97.749386000000001</v>
+      </c>
+      <c r="D90" s="64">
+        <v>99.472896000000006</v>
+      </c>
+      <c r="E90" s="64">
+        <v>98.319800000000001</v>
+      </c>
+      <c r="F90" s="65">
+        <v>1.009236</v>
+      </c>
+      <c r="G90" s="63">
+        <v>97.447434000000001</v>
+      </c>
+      <c r="H90" s="64">
+        <v>96.896776000000003</v>
+      </c>
+      <c r="I90" s="64">
+        <v>97.546357</v>
+      </c>
+      <c r="J90" s="65">
+        <v>0.996506</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="73"/>
+      <c r="C91" s="70">
+        <v>75.024524999999997</v>
+      </c>
+      <c r="D91" s="71">
+        <v>71.403847999999996</v>
+      </c>
+      <c r="E91" s="71">
+        <v>78.794730999999999</v>
+      </c>
+      <c r="F91" s="72">
+        <v>0.90340900000000002</v>
+      </c>
+      <c r="G91" s="70">
+        <v>60.335616999999999</v>
+      </c>
+      <c r="H91" s="71">
+        <v>52.224699999999999</v>
+      </c>
+      <c r="I91" s="71">
+        <v>70.216813000000002</v>
+      </c>
+      <c r="J91" s="72">
+        <v>0.72286499999999998</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="62"/>
+      <c r="C92" s="59">
+        <v>89.601580999999996</v>
+      </c>
+      <c r="D92" s="60">
+        <v>86.744032000000004</v>
+      </c>
+      <c r="E92" s="60">
+        <v>89.971534000000005</v>
+      </c>
+      <c r="F92" s="61">
+        <v>0.97846100000000003</v>
+      </c>
+      <c r="G92" s="59">
+        <v>76.520943000000003</v>
+      </c>
+      <c r="H92" s="60">
+        <v>70.399977000000007</v>
+      </c>
+      <c r="I92" s="60">
+        <v>82.804631000000001</v>
+      </c>
+      <c r="J92" s="61">
+        <v>0.85224900000000003</v>
+      </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="62"/>
+      <c r="C93" s="59">
+        <v>93.293594999999996</v>
+      </c>
+      <c r="D93" s="60">
+        <v>92.701229999999995</v>
+      </c>
+      <c r="E93" s="60">
+        <v>93.946115000000006</v>
+      </c>
+      <c r="F93" s="61">
+        <v>1.0183500000000001</v>
+      </c>
+      <c r="G93" s="59">
+        <v>81.662316000000004</v>
+      </c>
+      <c r="H93" s="60">
+        <v>76.408062999999999</v>
+      </c>
+      <c r="I93" s="60">
+        <v>87.539507</v>
+      </c>
+      <c r="J93" s="61">
+        <v>0.86369399999999996</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="62"/>
+      <c r="C94" s="59">
+        <v>95.616715999999997</v>
+      </c>
+      <c r="D94" s="60">
+        <v>96.942381999999995</v>
+      </c>
+      <c r="E94" s="60">
+        <v>95.291460000000001</v>
+      </c>
+      <c r="F94" s="61">
+        <v>1.021927</v>
+      </c>
+      <c r="G94" s="59">
+        <v>91.589592999999994</v>
+      </c>
+      <c r="H94" s="60">
+        <v>90.639115000000004</v>
+      </c>
+      <c r="I94" s="60">
+        <v>91.577440999999993</v>
+      </c>
+      <c r="J94" s="61">
+        <v>0.98982599999999998</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="62"/>
+      <c r="C95" s="59">
+        <v>76.683644999999999</v>
+      </c>
+      <c r="D95" s="60">
+        <v>75.145064000000005</v>
+      </c>
+      <c r="E95" s="60">
+        <v>78.678154000000006</v>
+      </c>
+      <c r="F95" s="61">
+        <v>0.93495399999999995</v>
+      </c>
+      <c r="G95" s="59">
+        <v>64.567667</v>
+      </c>
+      <c r="H95" s="60">
+        <v>58.650683000000001</v>
+      </c>
+      <c r="I95" s="60">
+        <v>71.388092999999998</v>
+      </c>
+      <c r="J95" s="61">
+        <v>0.77542299999999997</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="66"/>
+      <c r="C96" s="63">
+        <v>94.964166000000006</v>
+      </c>
+      <c r="D96" s="64">
+        <v>93.730714000000006</v>
+      </c>
+      <c r="E96" s="64">
+        <v>97.358333000000002</v>
+      </c>
+      <c r="F96" s="65">
+        <v>0.94867999999999997</v>
+      </c>
+      <c r="G96" s="63">
+        <v>84.98</v>
+      </c>
+      <c r="H96" s="64">
+        <v>83.713847000000001</v>
+      </c>
+      <c r="I96" s="64">
+        <v>89.169089999999997</v>
+      </c>
+      <c r="J96" s="65">
+        <v>0.88181799999999999</v>
+      </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="73"/>
+      <c r="C97" s="70">
+        <v>76.518366999999998</v>
+      </c>
+      <c r="D97" s="71">
+        <v>72.760249999999999</v>
+      </c>
+      <c r="E97" s="71">
+        <v>80.600285</v>
+      </c>
+      <c r="F97" s="72">
+        <v>0.90380300000000002</v>
+      </c>
+      <c r="G97" s="70">
+        <v>63.112473999999999</v>
+      </c>
+      <c r="H97" s="71">
+        <v>55.327671000000002</v>
+      </c>
+      <c r="I97" s="71">
+        <v>72.684460999999999</v>
+      </c>
+      <c r="J97" s="72">
+        <v>0.74148000000000003</v>
+      </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
+      <c r="C98" s="63">
+        <v>91.697685000000007</v>
+      </c>
+      <c r="D98" s="64">
+        <v>89.098017999999996</v>
+      </c>
+      <c r="E98" s="64">
+        <v>91.852251999999993</v>
+      </c>
+      <c r="F98" s="65">
+        <v>0.96921100000000004</v>
+      </c>
+      <c r="G98" s="63">
+        <v>80.213673</v>
+      </c>
+      <c r="H98" s="64">
+        <v>74.491861</v>
+      </c>
+      <c r="I98" s="64">
+        <v>85.601130999999995</v>
+      </c>
+      <c r="J98" s="65">
+        <v>0.86349200000000004</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4AF8750E-2999-407E-954B-BE6B057BC062}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{29C2D03D-48A8-4972-AE9F-B008E1A6A9F0}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{9B0B55C9-1B50-4ACF-AD44-405C1DAE2920}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{52E76EB1-A178-4859-A861-9574C9E09C9B}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{CE1FDEBC-0996-4CAE-85BA-1A658CD77568}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{66FAD8CC-71F3-48DC-8C7B-A0089A23AC9E}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{B2F6B8CB-2362-40D2-9602-98541822D70B}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{4E35B37F-9FF4-47EC-AE83-358F05AD5C95}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E20E5D01-FCB8-490B-885B-4E25E4AB6F7D}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{9F0CB015-BE1C-4AE3-AD4A-3FAACDFD55D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2025_Annex_Table_Tab06.xlsx
+++ b/AfDD_2025_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA613769-5761-4575-861D-D03E54787C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E5A859-00A2-44B6-A7A9-1747FEC6E6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CE2C8661-072B-4B04-85CA-3B6C5EC33A56}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{7507B9FD-BDDB-460A-8FB5-66727504C583}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: UNESCO Institute for Statistics (UIS) Database (updated 19/08/2025).</t>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A4658F-D6B7-4FD0-8129-082C00AF9057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109A712-6944-4827-8E19-C10BC55077E0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1450,15 +1450,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.140625" style="80" customWidth="1"/>
-    <col min="11" max="15" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="14.1796875" style="80" customWidth="1"/>
+    <col min="11" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1471,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1607,31 +1607,31 @@
         <v>19</v>
       </c>
       <c r="C6" s="15">
-        <v>97.467332999999996</v>
+        <v>96.480002999999996</v>
       </c>
       <c r="D6" s="19">
-        <v>100</v>
+        <v>98.800003000000004</v>
       </c>
       <c r="E6" s="19">
-        <v>95.545449000000005</v>
+        <v>94.309997999999993</v>
       </c>
       <c r="F6" s="20">
-        <v>1.044546</v>
+        <v>1.05</v>
       </c>
       <c r="G6" s="15">
-        <v>92.497435999999993</v>
+        <v>90.449996999999996</v>
       </c>
       <c r="H6" s="19">
-        <v>97.736772999999999</v>
+        <v>96.629997000000003</v>
       </c>
       <c r="I6" s="19">
-        <v>87.673366999999999</v>
+        <v>83.150002000000001</v>
       </c>
       <c r="J6" s="20">
-        <v>1.1029640000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0.68706500000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1735,31 +1735,31 @@
         <v>27</v>
       </c>
       <c r="C10" s="21">
-        <v>96.699996999999996</v>
+        <v>97.169998000000007</v>
       </c>
       <c r="D10" s="19">
-        <v>97.480002999999996</v>
+        <v>97.989998</v>
       </c>
       <c r="E10" s="19">
-        <v>95.910004000000001</v>
+        <v>96.339995999999999</v>
       </c>
       <c r="F10" s="20">
         <v>1.02</v>
       </c>
       <c r="G10" s="21">
-        <v>90</v>
+        <v>91.150002000000001</v>
       </c>
       <c r="H10" s="19">
-        <v>89.370002999999997</v>
+        <v>90.830001999999993</v>
       </c>
       <c r="I10" s="19">
-        <v>90.68</v>
+        <v>91.5</v>
       </c>
       <c r="J10" s="20">
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0.88511200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1823,37 +1823,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="28">
-        <v>87.889689000000004</v>
+        <v>87.832207999999994</v>
       </c>
       <c r="D13" s="29">
-        <v>86.900599999999997</v>
+        <v>86.823932999999997</v>
       </c>
       <c r="E13" s="29">
-        <v>89.055274999999995</v>
+        <v>88.965779999999995</v>
       </c>
       <c r="F13" s="30">
-        <v>0.97179300000000002</v>
+        <v>0.97239900000000001</v>
       </c>
       <c r="G13" s="28">
-        <v>81.580785000000006</v>
+        <v>81.481070000000003</v>
       </c>
       <c r="H13" s="29">
-        <v>77.887818999999993</v>
+        <v>77.927065999999996</v>
       </c>
       <c r="I13" s="29">
-        <v>86.016812000000002</v>
+        <v>85.605327000000003</v>
       </c>
       <c r="J13" s="30">
-        <v>0.89612700000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.90024199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>0.84737399999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>51</v>
@@ -2171,7 +2171,7 @@
         <v>0.72819599999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0.90438200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0.964086</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0.87352600000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>80</v>
@@ -2649,7 +2649,7 @@
         <v>0.85774899999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0.85941699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>93</v>
@@ -2871,7 +2871,7 @@
         <v>0.81980600000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0.73694300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
@@ -2943,31 +2943,31 @@
         <v>99</v>
       </c>
       <c r="C48" s="32">
-        <v>98.110000999999997</v>
+        <v>98.32</v>
       </c>
       <c r="D48" s="33">
-        <v>98.730002999999996</v>
+        <v>98.160004000000001</v>
       </c>
       <c r="E48" s="33">
-        <v>97.589995999999999</v>
+        <v>98.459998999999996</v>
       </c>
       <c r="F48" s="34">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="G48" s="32">
-        <v>86.790001000000004</v>
+        <v>88.470000999999996</v>
       </c>
       <c r="H48" s="33">
-        <v>82.040001000000004</v>
+        <v>84.120002999999997</v>
       </c>
       <c r="I48" s="33">
-        <v>91.690002000000007</v>
+        <v>92.900002000000001</v>
       </c>
       <c r="J48" s="34">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
@@ -3231,31 +3231,31 @@
         <v>117</v>
       </c>
       <c r="C57" s="21">
-        <v>73.669998000000007</v>
+        <v>81.360000999999997</v>
       </c>
       <c r="D57" s="19">
-        <v>69.050003000000004</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="E57" s="19">
-        <v>77.779999000000004</v>
+        <v>81.309997999999993</v>
       </c>
       <c r="F57" s="20">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G57" s="21">
-        <v>63.16</v>
+        <v>70.410004000000001</v>
       </c>
       <c r="H57" s="19">
-        <v>53.25</v>
+        <v>62.419998</v>
       </c>
       <c r="I57" s="19">
-        <v>73.730002999999996</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="J57" s="20">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3351,127 +3351,127 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="28">
-        <v>71.850713999999996</v>
+        <v>72.415000000000006</v>
       </c>
       <c r="D61" s="29">
-        <v>68.819783000000001</v>
+        <v>69.663354999999996</v>
       </c>
       <c r="E61" s="29">
-        <v>76.147983999999994</v>
+        <v>76.462270000000004</v>
       </c>
       <c r="F61" s="30">
-        <v>0.89334100000000005</v>
+        <v>0.90000800000000003</v>
       </c>
       <c r="G61" s="28">
-        <v>54.433717000000001</v>
+        <v>55.071573999999998</v>
       </c>
       <c r="H61" s="29">
-        <v>45.409018000000003</v>
+        <v>46.212589000000001</v>
       </c>
       <c r="I61" s="29">
-        <v>65.417968000000002</v>
+        <v>65.840110999999993</v>
       </c>
       <c r="J61" s="30">
-        <v>0.68120999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.68835299999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C62" s="50">
-        <v>80.364965999999995</v>
+        <v>80.540744000000004</v>
       </c>
       <c r="D62" s="51">
-        <v>78.048933000000005</v>
+        <v>78.307536999999996</v>
       </c>
       <c r="E62" s="51">
-        <v>83.414658000000003</v>
+        <v>83.500242</v>
       </c>
       <c r="F62" s="52">
-        <v>0.92491900000000005</v>
+        <v>0.927315</v>
       </c>
       <c r="G62" s="50">
-        <v>67.707432999999995</v>
+        <v>67.903349000000006</v>
       </c>
       <c r="H62" s="51">
-        <v>61.302070999999998</v>
+        <v>61.578338000000002</v>
       </c>
       <c r="I62" s="51">
-        <v>75.870148999999998</v>
+        <v>75.923969</v>
       </c>
       <c r="J62" s="52">
-        <v>0.78099700000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.78433900000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C63" s="50">
-        <v>96.574938000000003</v>
+        <v>96.571128999999999</v>
       </c>
       <c r="D63" s="51">
-        <v>96.615234999999998</v>
+        <v>96.612514000000004</v>
       </c>
       <c r="E63" s="51">
-        <v>96.632498999999996</v>
+        <v>96.637428999999997</v>
       </c>
       <c r="F63" s="52">
-        <v>0.99912699999999999</v>
+        <v>0.99891099999999999</v>
       </c>
       <c r="G63" s="50">
-        <v>91.890476000000007</v>
+        <v>91.900451000000004</v>
       </c>
       <c r="H63" s="51">
-        <v>89.941080999999997</v>
+        <v>89.957896000000005</v>
       </c>
       <c r="I63" s="51">
-        <v>93.606075000000004</v>
+        <v>93.602402999999995</v>
       </c>
       <c r="J63" s="52">
-        <v>0.957839</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.95813199999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="55">
-        <v>96.945918000000006</v>
+        <v>96.889632000000006</v>
       </c>
       <c r="D64" s="56">
-        <v>98.502481000000003</v>
+        <v>98.468073000000004</v>
       </c>
       <c r="E64" s="56">
-        <v>97.091730999999996</v>
+        <v>97.046705000000003</v>
       </c>
       <c r="F64" s="57">
-        <v>1.0118050000000001</v>
+        <v>1.0114879999999999</v>
       </c>
       <c r="G64" s="55">
-        <v>92.395538999999999</v>
+        <v>92.373444000000006</v>
       </c>
       <c r="H64" s="56">
-        <v>91.826132999999999</v>
+        <v>91.813609</v>
       </c>
       <c r="I64" s="56">
-        <v>93.319120999999996</v>
+        <v>93.273535999999993</v>
       </c>
       <c r="J64" s="57">
-        <v>0.98089599999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.98148000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>128</v>
@@ -3501,37 +3501,37 @@
         <v>0.90315999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="63">
-        <v>90.948335999999998</v>
+        <v>91.006862999999996</v>
       </c>
       <c r="D66" s="64">
-        <v>90.279116000000002</v>
+        <v>90.365577999999999</v>
       </c>
       <c r="E66" s="64">
-        <v>92.082093999999998</v>
+        <v>92.114790999999997</v>
       </c>
       <c r="F66" s="65">
-        <v>0.97279499999999997</v>
+        <v>0.97350599999999998</v>
       </c>
       <c r="G66" s="63">
-        <v>83.268696000000006</v>
+        <v>83.344963000000007</v>
       </c>
       <c r="H66" s="64">
-        <v>80.161906999999999</v>
+        <v>80.267314999999996</v>
       </c>
       <c r="I66" s="64">
-        <v>87.282831999999999</v>
+        <v>87.299656999999996</v>
       </c>
       <c r="J66" s="65">
-        <v>0.894791</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.89617100000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>130</v>
@@ -3561,37 +3561,37 @@
         <v>0.86226000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
       <c r="C68" s="59">
-        <v>71.849519000000001</v>
+        <v>72.215710000000001</v>
       </c>
       <c r="D68" s="60">
-        <v>67.894873000000004</v>
+        <v>68.484396000000004</v>
       </c>
       <c r="E68" s="60">
-        <v>76.650216999999998</v>
+        <v>76.818312000000006</v>
       </c>
       <c r="F68" s="61">
-        <v>0.88148199999999999</v>
+        <v>0.88671999999999995</v>
       </c>
       <c r="G68" s="59">
-        <v>55.176682999999997</v>
+        <v>55.539183000000001</v>
       </c>
       <c r="H68" s="60">
-        <v>46.039259000000001</v>
+        <v>46.497759000000002</v>
       </c>
       <c r="I68" s="60">
-        <v>66.049475000000001</v>
+        <v>66.284475</v>
       </c>
       <c r="J68" s="61">
-        <v>0.678037</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.682037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>132</v>
@@ -3621,7 +3621,7 @@
         <v>0.84818000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>133</v>
@@ -3651,37 +3651,37 @@
         <v>0.74081900000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
       <c r="C71" s="59">
-        <v>71.850713999999996</v>
+        <v>72.415000000000006</v>
       </c>
       <c r="D71" s="60">
-        <v>68.819783000000001</v>
+        <v>69.663354999999996</v>
       </c>
       <c r="E71" s="60">
-        <v>76.147983999999994</v>
+        <v>76.462270000000004</v>
       </c>
       <c r="F71" s="61">
-        <v>0.89334100000000005</v>
+        <v>0.90000800000000003</v>
       </c>
       <c r="G71" s="59">
-        <v>54.433717000000001</v>
+        <v>55.071573999999998</v>
       </c>
       <c r="H71" s="60">
-        <v>45.409018000000003</v>
+        <v>46.212589000000001</v>
       </c>
       <c r="I71" s="60">
-        <v>65.417968000000002</v>
+        <v>65.840110999999993</v>
       </c>
       <c r="J71" s="61">
-        <v>0.68120999999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.68835299999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>135</v>
@@ -3711,37 +3711,37 @@
         <v>0.75117500000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
       <c r="C73" s="59">
-        <v>88.226083000000003</v>
+        <v>88.189131000000003</v>
       </c>
       <c r="D73" s="60">
-        <v>86.394644999999997</v>
+        <v>86.345359000000002</v>
       </c>
       <c r="E73" s="60">
-        <v>89.553432000000001</v>
+        <v>89.495900000000006</v>
       </c>
       <c r="F73" s="61">
-        <v>0.98127799999999998</v>
+        <v>0.98166699999999996</v>
       </c>
       <c r="G73" s="59">
-        <v>80.212149999999994</v>
+        <v>80.148047000000005</v>
       </c>
       <c r="H73" s="60">
-        <v>76.220112</v>
+        <v>76.245343000000005</v>
       </c>
       <c r="I73" s="60">
-        <v>85.714202999999998</v>
+        <v>85.449676999999994</v>
       </c>
       <c r="J73" s="61">
-        <v>0.887401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.890046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>137</v>
@@ -3771,37 +3771,37 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>138</v>
       </c>
       <c r="C75" s="66">
-        <v>84.585327000000007</v>
+        <v>84.627326999999994</v>
       </c>
       <c r="D75" s="67">
-        <v>80.984871999999996</v>
+        <v>80.870872000000006</v>
       </c>
       <c r="E75" s="67">
-        <v>88.396207000000004</v>
+        <v>88.570206999999996</v>
       </c>
       <c r="F75" s="68">
-        <v>0.90896100000000002</v>
+        <v>0.90696100000000002</v>
       </c>
       <c r="G75" s="66">
-        <v>73.215564000000001</v>
+        <v>73.551563999999999</v>
       </c>
       <c r="H75" s="67">
-        <v>63.961373999999999</v>
+        <v>64.377374000000003</v>
       </c>
       <c r="I75" s="67">
-        <v>83.880476000000002</v>
+        <v>84.122476000000006</v>
       </c>
       <c r="J75" s="68">
-        <v>0.751413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.755413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>139</v>
@@ -3831,37 +3831,37 @@
         <v>0.93881199999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
       <c r="C77" s="59">
-        <v>99.052156999999994</v>
+        <v>99.063198</v>
       </c>
       <c r="D77" s="60">
-        <v>99.230320000000006</v>
+        <v>99.266825999999995</v>
       </c>
       <c r="E77" s="60">
-        <v>98.876013999999998</v>
+        <v>98.930226000000005</v>
       </c>
       <c r="F77" s="61">
-        <v>1.003671</v>
+        <v>1.0029870000000001</v>
       </c>
       <c r="G77" s="59">
-        <v>95.353303999999994</v>
+        <v>95.333617000000004</v>
       </c>
       <c r="H77" s="60">
-        <v>95.108687000000003</v>
+        <v>94.980174000000005</v>
       </c>
       <c r="I77" s="60">
-        <v>95.732991999999996</v>
+        <v>95.789886999999993</v>
       </c>
       <c r="J77" s="61">
-        <v>0.99422999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.99273100000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>141</v>
@@ -3891,157 +3891,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="63">
-        <v>95.691997999999998</v>
+        <v>95.691372999999999</v>
       </c>
       <c r="D79" s="64">
-        <v>98.449340000000007</v>
+        <v>98.505000999999993</v>
       </c>
       <c r="E79" s="64">
-        <v>98.161940999999999</v>
+        <v>98.116879999999995</v>
       </c>
       <c r="F79" s="65">
-        <v>1.0005820000000001</v>
+        <v>1.0014989999999999</v>
       </c>
       <c r="G79" s="63">
-        <v>97.334541000000002</v>
+        <v>97.302577999999997</v>
       </c>
       <c r="H79" s="64">
-        <v>96.483560999999995</v>
+        <v>96.484419000000003</v>
       </c>
       <c r="I79" s="64">
-        <v>97.805702999999994</v>
+        <v>97.740347999999997</v>
       </c>
       <c r="J79" s="65">
-        <v>0.991699</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.99280299999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>143</v>
       </c>
       <c r="C80" s="70">
-        <v>76.748002</v>
+        <v>76.790002000000001</v>
       </c>
       <c r="D80" s="71">
-        <v>76.248334</v>
+        <v>76.153334000000001</v>
       </c>
       <c r="E80" s="71">
-        <v>81.607999000000007</v>
+        <v>81.781999999999996</v>
       </c>
       <c r="F80" s="72">
-        <v>0.85399999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="G80" s="70">
-        <v>66.409998999999999</v>
+        <v>66.745999999999995</v>
       </c>
       <c r="H80" s="71">
-        <v>60.95</v>
+        <v>61.296666999999999</v>
       </c>
       <c r="I80" s="71">
-        <v>76.174000000000007</v>
+        <v>76.415999999999997</v>
       </c>
       <c r="J80" s="72">
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
       <c r="C81" s="59">
-        <v>97.327436000000006</v>
+        <v>97.367992000000001</v>
       </c>
       <c r="D81" s="60">
-        <v>96.696980999999994</v>
+        <v>96.729980999999995</v>
       </c>
       <c r="E81" s="60">
-        <v>95.449042000000006</v>
+        <v>95.488515000000007</v>
       </c>
       <c r="F81" s="61">
         <v>1.010378</v>
       </c>
       <c r="G81" s="59">
-        <v>94.474568000000005</v>
+        <v>94.540818000000002</v>
       </c>
       <c r="H81" s="60">
-        <v>89.760486</v>
+        <v>89.848820000000003</v>
       </c>
       <c r="I81" s="60">
-        <v>95.639223000000001</v>
+        <v>95.666721999999993</v>
       </c>
       <c r="J81" s="61">
-        <v>0.96429500000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.96492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
       <c r="C82" s="59">
-        <v>80.853745000000004</v>
+        <v>81.047601</v>
       </c>
       <c r="D82" s="60">
-        <v>78.340922000000006</v>
+        <v>78.656868000000003</v>
       </c>
       <c r="E82" s="60">
-        <v>83.658800999999997</v>
+        <v>83.732437000000004</v>
       </c>
       <c r="F82" s="61">
-        <v>0.93401100000000004</v>
+        <v>0.936971</v>
       </c>
       <c r="G82" s="59">
-        <v>67.887631999999996</v>
+        <v>68.064092000000002</v>
       </c>
       <c r="H82" s="60">
-        <v>61.360750000000003</v>
+        <v>61.625284000000001</v>
       </c>
       <c r="I82" s="60">
-        <v>75.827948000000006</v>
+        <v>75.855632</v>
       </c>
       <c r="J82" s="61">
-        <v>0.78863499999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.79188599999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
       <c r="C83" s="63">
-        <v>96.352889000000005</v>
+        <v>96.335989999999995</v>
       </c>
       <c r="D83" s="64">
-        <v>96.589282999999995</v>
+        <v>96.575222999999994</v>
       </c>
       <c r="E83" s="64">
-        <v>97.001115999999996</v>
+        <v>96.995287000000005</v>
       </c>
       <c r="F83" s="65">
-        <v>0.99562200000000001</v>
+        <v>0.99533899999999997</v>
       </c>
       <c r="G83" s="63">
-        <v>91.177623999999994</v>
+        <v>91.172073999999995</v>
       </c>
       <c r="H83" s="64">
-        <v>89.992679999999993</v>
+        <v>89.989059999999995</v>
       </c>
       <c r="I83" s="64">
-        <v>93.045207000000005</v>
+        <v>93.032936000000007</v>
       </c>
       <c r="J83" s="65">
-        <v>0.95605799999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.95626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>147</v>
@@ -4071,7 +4071,7 @@
         <v>0.69675900000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>148</v>
@@ -4101,187 +4101,187 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
       <c r="C86" s="59">
-        <v>83.292524</v>
+        <v>83.627656999999999</v>
       </c>
       <c r="D86" s="60">
-        <v>80.863320000000002</v>
+        <v>81.422319999999999</v>
       </c>
       <c r="E86" s="60">
-        <v>86.357049000000004</v>
+        <v>86.471776000000006</v>
       </c>
       <c r="F86" s="61">
-        <v>0.93850100000000003</v>
+        <v>0.94399900000000003</v>
       </c>
       <c r="G86" s="59">
-        <v>72.772152000000006</v>
+        <v>73.045970999999994</v>
       </c>
       <c r="H86" s="60">
-        <v>67.043812000000003</v>
+        <v>67.468192000000002</v>
       </c>
       <c r="I86" s="60">
-        <v>79.830005999999997</v>
+        <v>79.839303000000001</v>
       </c>
       <c r="J86" s="61">
-        <v>0.82483600000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.83099500000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
       <c r="C87" s="59">
-        <v>94.309545999999997</v>
+        <v>94.319091</v>
       </c>
       <c r="D87" s="60">
-        <v>93.809490999999994</v>
+        <v>93.816309000000004</v>
       </c>
       <c r="E87" s="60">
-        <v>95.236440999999999</v>
+        <v>95.245078000000007</v>
       </c>
       <c r="F87" s="61">
         <v>0.99128700000000003</v>
       </c>
       <c r="G87" s="59">
-        <v>84.060860000000005</v>
+        <v>84.116097999999994</v>
       </c>
       <c r="H87" s="60">
-        <v>80.230102000000002</v>
+        <v>80.298283999999995</v>
       </c>
       <c r="I87" s="60">
-        <v>88.145077999999998</v>
+        <v>88.179839999999999</v>
       </c>
       <c r="J87" s="61">
-        <v>0.90652299999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.906999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
       <c r="C88" s="59">
-        <v>97.147754000000006</v>
+        <v>97.317753999999994</v>
       </c>
       <c r="D88" s="60">
-        <v>97.448001000000005</v>
+        <v>97.436000000000007</v>
       </c>
       <c r="E88" s="60">
-        <v>97.068971000000005</v>
+        <v>97.393969999999996</v>
       </c>
       <c r="F88" s="61">
-        <v>1.0029600000000001</v>
+        <v>1.0004599999999999</v>
       </c>
       <c r="G88" s="59">
-        <v>89.994130999999996</v>
+        <v>90.701631000000006</v>
       </c>
       <c r="H88" s="60">
-        <v>85.106149000000002</v>
+        <v>85.814149</v>
       </c>
       <c r="I88" s="60">
-        <v>92.364811000000003</v>
+        <v>92.872309999999999</v>
       </c>
       <c r="J88" s="61">
-        <v>0.95102100000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.95602100000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
       <c r="C89" s="59">
-        <v>98.216391000000002</v>
+        <v>98.171876999999995</v>
       </c>
       <c r="D89" s="60">
-        <v>98.592275999999998</v>
+        <v>98.556680999999998</v>
       </c>
       <c r="E89" s="60">
-        <v>97.882322000000002</v>
+        <v>97.840219000000005</v>
       </c>
       <c r="F89" s="61">
-        <v>1.0061359999999999</v>
+        <v>1.0059340000000001</v>
       </c>
       <c r="G89" s="59">
-        <v>95.428306000000006</v>
+        <v>95.377649000000005</v>
       </c>
       <c r="H89" s="60">
-        <v>94.702977000000004</v>
+        <v>94.672002000000006</v>
       </c>
       <c r="I89" s="60">
-        <v>96.092434999999995</v>
+        <v>96.040498999999997</v>
       </c>
       <c r="J89" s="61">
-        <v>0.98582400000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.98600900000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
       <c r="C90" s="63">
-        <v>97.749386000000001</v>
+        <v>97.804500000000004</v>
       </c>
       <c r="D90" s="64">
-        <v>99.472896000000006</v>
+        <v>99.524308000000005</v>
       </c>
       <c r="E90" s="64">
-        <v>98.319800000000001</v>
+        <v>98.415362999999999</v>
       </c>
       <c r="F90" s="65">
-        <v>1.009236</v>
+        <v>1.008678</v>
       </c>
       <c r="G90" s="63">
-        <v>97.447434000000001</v>
+        <v>97.520949000000002</v>
       </c>
       <c r="H90" s="64">
-        <v>96.896776000000003</v>
+        <v>96.9482</v>
       </c>
       <c r="I90" s="64">
-        <v>97.546357</v>
+        <v>97.588249000000005</v>
       </c>
       <c r="J90" s="65">
-        <v>0.996506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.996834</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
       <c r="C91" s="70">
-        <v>75.024524999999997</v>
+        <v>74.989262999999994</v>
       </c>
       <c r="D91" s="71">
-        <v>71.403847999999996</v>
+        <v>71.360990999999999</v>
       </c>
       <c r="E91" s="71">
-        <v>78.794730999999999</v>
+        <v>78.750608</v>
       </c>
       <c r="F91" s="72">
-        <v>0.90340900000000002</v>
+        <v>0.90359699999999998</v>
       </c>
       <c r="G91" s="70">
-        <v>60.335616999999999</v>
+        <v>60.259785999999998</v>
       </c>
       <c r="H91" s="71">
-        <v>52.224699999999999</v>
+        <v>52.183708000000003</v>
       </c>
       <c r="I91" s="71">
-        <v>70.216813000000002</v>
+        <v>70.049280999999993</v>
       </c>
       <c r="J91" s="72">
-        <v>0.72286499999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.72423700000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>155</v>
@@ -4311,187 +4311,187 @@
         <v>0.85224900000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
       <c r="C93" s="59">
-        <v>93.293594999999996</v>
+        <v>93.335594</v>
       </c>
       <c r="D93" s="60">
-        <v>92.701229999999995</v>
+        <v>92.587230000000005</v>
       </c>
       <c r="E93" s="60">
-        <v>93.946115000000006</v>
+        <v>94.120115999999996</v>
       </c>
       <c r="F93" s="61">
-        <v>1.0183500000000001</v>
+        <v>1.0163500000000001</v>
       </c>
       <c r="G93" s="59">
-        <v>81.662316000000004</v>
+        <v>81.998317</v>
       </c>
       <c r="H93" s="60">
-        <v>76.408062999999999</v>
+        <v>76.824062999999995</v>
       </c>
       <c r="I93" s="60">
-        <v>87.539507</v>
+        <v>87.781507000000005</v>
       </c>
       <c r="J93" s="61">
-        <v>0.86369399999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.86769399999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
       <c r="C94" s="59">
-        <v>95.616715999999997</v>
+        <v>95.602215999999999</v>
       </c>
       <c r="D94" s="60">
-        <v>96.942381999999995</v>
+        <v>96.941906000000003</v>
       </c>
       <c r="E94" s="60">
-        <v>95.291460000000001</v>
+        <v>95.260507000000004</v>
       </c>
       <c r="F94" s="61">
-        <v>1.021927</v>
+        <v>1.02216</v>
       </c>
       <c r="G94" s="59">
-        <v>91.589592999999994</v>
+        <v>91.572981999999996</v>
       </c>
       <c r="H94" s="60">
-        <v>90.639115000000004</v>
+        <v>90.65016</v>
       </c>
       <c r="I94" s="60">
-        <v>91.577440999999993</v>
+        <v>91.524916000000005</v>
       </c>
       <c r="J94" s="61">
-        <v>0.98982599999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.990591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
       <c r="C95" s="59">
-        <v>76.683644999999999</v>
+        <v>76.613122000000004</v>
       </c>
       <c r="D95" s="60">
-        <v>75.145064000000005</v>
+        <v>75.059349999999995</v>
       </c>
       <c r="E95" s="60">
-        <v>78.678154000000006</v>
+        <v>78.589906999999997</v>
       </c>
       <c r="F95" s="61">
-        <v>0.93495399999999995</v>
+        <v>0.93534300000000004</v>
       </c>
       <c r="G95" s="59">
-        <v>64.567667</v>
+        <v>64.421420999999995</v>
       </c>
       <c r="H95" s="60">
-        <v>58.650683000000001</v>
+        <v>58.571627999999997</v>
       </c>
       <c r="I95" s="60">
-        <v>71.388092999999998</v>
+        <v>71.064994999999996</v>
       </c>
       <c r="J95" s="61">
-        <v>0.77542299999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.77806799999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
       <c r="C96" s="63">
-        <v>94.964166000000006</v>
+        <v>94.940832999999998</v>
       </c>
       <c r="D96" s="64">
-        <v>93.730714000000006</v>
+        <v>93.703571999999994</v>
       </c>
       <c r="E96" s="64">
-        <v>97.358333000000002</v>
+        <v>97.342500000000001</v>
       </c>
       <c r="F96" s="65">
-        <v>0.94867999999999997</v>
+        <v>0.94851399999999997</v>
       </c>
       <c r="G96" s="63">
-        <v>84.98</v>
+        <v>85.009090999999998</v>
       </c>
       <c r="H96" s="64">
-        <v>83.713847000000001</v>
+        <v>83.726153999999994</v>
       </c>
       <c r="I96" s="64">
-        <v>89.169089999999997</v>
+        <v>89.214544000000004</v>
       </c>
       <c r="J96" s="65">
         <v>0.88181799999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C97" s="70">
-        <v>76.518366999999998</v>
+        <v>76.766430999999997</v>
       </c>
       <c r="D97" s="71">
-        <v>72.760249999999999</v>
+        <v>73.159604999999999</v>
       </c>
       <c r="E97" s="71">
-        <v>80.600285</v>
+        <v>80.714155000000005</v>
       </c>
       <c r="F97" s="72">
-        <v>0.90380300000000002</v>
+        <v>0.90713600000000005</v>
       </c>
       <c r="G97" s="70">
-        <v>63.112473999999999</v>
+        <v>63.354140999999998</v>
       </c>
       <c r="H97" s="71">
-        <v>55.327671000000002</v>
+        <v>55.633336999999997</v>
       </c>
       <c r="I97" s="71">
-        <v>72.684460999999999</v>
+        <v>72.841127999999998</v>
       </c>
       <c r="J97" s="72">
-        <v>0.74148000000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.744147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="63">
-        <v>91.697685000000007</v>
+        <v>91.601213999999999</v>
       </c>
       <c r="D98" s="64">
-        <v>89.098017999999996</v>
+        <v>89.009129000000001</v>
       </c>
       <c r="E98" s="64">
-        <v>91.852251999999993</v>
+        <v>91.763362999999998</v>
       </c>
       <c r="F98" s="65">
-        <v>0.96921100000000004</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="G98" s="63">
-        <v>80.213673</v>
+        <v>80.155293999999998</v>
       </c>
       <c r="H98" s="64">
-        <v>74.491861</v>
+        <v>74.475153000000006</v>
       </c>
       <c r="I98" s="64">
-        <v>85.601130999999995</v>
+        <v>85.520262000000002</v>
       </c>
       <c r="J98" s="65">
-        <v>0.86349200000000004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.86390800000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -4503,7 +4503,7 @@
       <c r="I99" s="67"/>
       <c r="J99" s="67"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="I100" s="76"/>
       <c r="J100" s="76"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="I101" s="76"/>
       <c r="J101" s="76"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="I102" s="76"/>
       <c r="J102" s="76"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="I103" s="76"/>
       <c r="J103" s="76"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="I104" s="76"/>
       <c r="J104" s="76"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4578,7 +4578,7 @@
       <c r="I105" s="76"/>
       <c r="J105" s="76"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4589,7 +4589,7 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="I107" s="76"/>
       <c r="J107" s="76"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -4613,7 +4613,7 @@
       <c r="I108" s="76"/>
       <c r="J108" s="76"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="I109" s="76"/>
       <c r="J109" s="76"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="I110" s="76"/>
       <c r="J110" s="76"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="I111" s="76"/>
       <c r="J111" s="76"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="I112" s="76"/>
       <c r="J112" s="76"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -4678,11 +4678,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{66FAD8CC-71F3-48DC-8C7B-A0089A23AC9E}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{B2F6B8CB-2362-40D2-9602-98541822D70B}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{4E35B37F-9FF4-47EC-AE83-358F05AD5C95}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{E20E5D01-FCB8-490B-885B-4E25E4AB6F7D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{9F0CB015-BE1C-4AE3-AD4A-3FAACDFD55D1}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{30102796-9E03-41AA-8AE4-CD935986178E}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{98A09EA1-0F4A-4123-B0F7-23DDE2F95DF0}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{BB05FA83-CDDF-41C2-8915-D7CE56CE4BF4}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BD2B655E-0ED3-47B2-99CC-D8D3C5536364}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{D0DB6CA3-6D84-4ABB-BC23-3A2E55C0FB3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2025_Annex_Table_Tab06.xlsx
+++ b/AfDD_2025_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E5A859-00A2-44B6-A7A9-1747FEC6E6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18564DB5-E642-458D-87CE-7029D1E296CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{7507B9FD-BDDB-460A-8FB5-66727504C583}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F35C8F99-E0DA-4EEC-AA4F-AAD872710401}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: UNESCO Institute for Statistics (UIS) Database (updated 19/08/2025).</t>
@@ -543,16 +543,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,16 +694,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -930,7 +920,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1158,7 +1148,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1442,11 +1431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109A712-6944-4827-8E19-C10BC55077E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD74DDA1-303A-4FC2-B6DD-A5D2B87E21BC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1454,7 +1443,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.1796875" style="80" customWidth="1"/>
+    <col min="3" max="10" width="14.1796875" style="79" customWidth="1"/>
     <col min="11" max="15" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4589,10 +4578,8 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>167</v>
-      </c>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4603,7 +4590,9 @@
       <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="80" t="s">
+        <v>167</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4614,9 +4603,7 @@
       <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>169</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4627,8 +4614,8 @@
       <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>170</v>
+      <c r="B110" s="80" t="s">
+        <v>168</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4640,8 +4627,8 @@
       <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>171</v>
+      <c r="B111" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4653,8 +4640,8 @@
       <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
+      <c r="B112" s="80" t="s">
+        <v>171</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4666,7 +4653,9 @@
       <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="80" t="s">
+        <v>170</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4676,13 +4665,24 @@
       <c r="I113" s="76"/>
       <c r="J113" s="76"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{30102796-9E03-41AA-8AE4-CD935986178E}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{98A09EA1-0F4A-4123-B0F7-23DDE2F95DF0}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{BB05FA83-CDDF-41C2-8915-D7CE56CE4BF4}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BD2B655E-0ED3-47B2-99CC-D8D3C5536364}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{D0DB6CA3-6D84-4ABB-BC23-3A2E55C0FB3F}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{654807AC-39E8-4558-9DE6-185CF2DC82D7}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{AC23A2A9-95AC-4600-82A1-D77F0AB52A0E}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{2BFEF9D7-E1AA-451E-8C14-19F1317E3CBF}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{97F25206-042E-4608-B47E-9E7FF729C5B4}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{BA66381C-3D0F-4EA5-87D6-228A6D93D3ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
